--- a/public/data/sample_org_data.xlsx
+++ b/public/data/sample_org_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaehyun/workspace/gaainkim0110.github.io/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4EB965-F599-A143-ACA4-4673A5ED47A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7969F598-DC0B-6341-838F-8157FC6D9B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Org Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="132">
   <si>
     <t>No</t>
   </si>
@@ -486,6 +486,10 @@
   </si>
   <si>
     <t>준법감시그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,16 +874,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -966,9 +969,6 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
@@ -976,7 +976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1">
+    <row r="3" spans="1:17">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1">
+    <row r="4" spans="1:17">
       <c r="A4">
         <f t="shared" ref="A4:A29" si="0">+A3+1</f>
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1">
+    <row r="5" spans="1:17">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1120,7 +1120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1">
+    <row r="6" spans="1:17">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1168,7 +1168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1">
+    <row r="7" spans="1:17">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1216,7 +1216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1">
+    <row r="8" spans="1:17">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1264,7 +1264,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1">
+    <row r="9" spans="1:17">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1312,7 +1312,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1">
+    <row r="10" spans="1:17">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1345,7 +1345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1">
+    <row r="11" spans="1:17">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1393,7 +1393,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1">
+    <row r="12" spans="1:17">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1441,7 +1441,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1">
+    <row r="13" spans="1:17">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1">
+    <row r="14" spans="1:17">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1528,7 +1528,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1">
+    <row r="15" spans="1:17">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1576,7 +1576,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1">
+    <row r="16" spans="1:17">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1624,7 +1624,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1">
+    <row r="17" spans="1:15">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1">
+    <row r="18" spans="1:15" ht="20" customHeight="1">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2284,7 +2284,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2369,14 +2369,52 @@
         <v>130</v>
       </c>
     </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q32" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="IB본부"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/public/data/sample_org_data.xlsx
+++ b/public/data/sample_org_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaehyun/workspace/gaainkim0110.github.io/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7969F598-DC0B-6341-838F-8157FC6D9B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A8F9EB-2216-5C49-AC4E-2AF020AD49E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>레벨5</t>
   </si>
   <si>
-    <t>E001</t>
-  </si>
-  <si>
     <t>NAVER</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>홍길동</t>
   </si>
   <si>
-    <t>E002</t>
-  </si>
-  <si>
     <t>Organizational Development</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>이철수</t>
   </si>
   <si>
-    <t>E003</t>
-  </si>
-  <si>
     <t>선임</t>
   </si>
   <si>
@@ -145,15 +136,9 @@
     <t>박영희</t>
   </si>
   <si>
-    <t>E004</t>
-  </si>
-  <si>
     <t>최개발</t>
   </si>
   <si>
-    <t>E005</t>
-  </si>
-  <si>
     <t>Search Dev</t>
   </si>
   <si>
@@ -169,18 +154,12 @@
     <t>정자바</t>
   </si>
   <si>
-    <t>E006</t>
-  </si>
-  <si>
     <t>수석</t>
   </si>
   <si>
     <t>강비즈</t>
   </si>
   <si>
-    <t>E007</t>
-  </si>
-  <si>
     <t>Business Strategy</t>
   </si>
   <si>
@@ -269,9 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E008</t>
-  </si>
-  <si>
     <t>대리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,9 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E009</t>
-  </si>
-  <si>
     <t>김가인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,125 +344,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E010</t>
-  </si>
-  <si>
-    <t>E011</t>
-  </si>
-  <si>
-    <t>E012</t>
-  </si>
-  <si>
-    <t>E013</t>
-  </si>
-  <si>
-    <t>E014</t>
-  </si>
-  <si>
-    <t>E015</t>
-  </si>
-  <si>
-    <t>E016</t>
-  </si>
-  <si>
-    <t>E017</t>
+    <t>Leadership Insight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인재관리팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB본부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCM사업부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCM1팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCM2팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김비서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박외주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준법팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준법감시인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외주직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준법감시그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E019</t>
-  </si>
-  <si>
-    <t>E020</t>
-  </si>
-  <si>
-    <t>E021</t>
-  </si>
-  <si>
-    <t>E022</t>
-  </si>
-  <si>
-    <t>E023</t>
-  </si>
-  <si>
-    <t>E024</t>
-  </si>
-  <si>
-    <t>E025</t>
-  </si>
-  <si>
-    <t>E026</t>
-  </si>
-  <si>
-    <t>E027</t>
-  </si>
-  <si>
-    <t>E028</t>
-  </si>
-  <si>
-    <t>Leadership Insight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인재관리팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IB본부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCM사업부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCM1팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCM2팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김비서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박외주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준법팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준법감시인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외주직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준법감시그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORG002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KK030</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,12 +904,12 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="17">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -926,13 +953,13 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -940,40 +967,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -982,46 +1009,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1030,46 +1057,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1078,46 +1105,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1126,46 +1153,46 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
         <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1174,46 +1201,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1222,46 +1249,46 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1270,46 +1297,46 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1318,31 +1345,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1351,46 +1378,46 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>1094</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
         <v>66</v>
       </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1399,46 +1426,46 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" t="s">
-        <v>64</v>
-      </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1447,40 +1474,40 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
         <v>18</v>
       </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1489,43 +1516,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
         <v>18</v>
       </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1534,46 +1561,46 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1582,46 +1609,46 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
         <v>57</v>
       </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" t="s">
-        <v>64</v>
-      </c>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1630,46 +1657,46 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" t="s">
-        <v>64</v>
-      </c>
       <c r="L17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20" customHeight="1">
@@ -1678,46 +1705,46 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" t="s">
-        <v>64</v>
-      </c>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1726,40 +1753,40 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="E19">
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
         <v>18</v>
       </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M19" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1768,43 +1795,43 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E20">
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M20" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1813,46 +1840,46 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <v>666</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
         <v>18</v>
       </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M21" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="N21" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O21" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1861,46 +1888,46 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E22">
         <v>666</v>
       </c>
       <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" t="s">
         <v>57</v>
       </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" t="s">
-        <v>64</v>
-      </c>
       <c r="L22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O22" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1909,46 +1936,46 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E23">
         <v>666</v>
       </c>
       <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" t="s">
         <v>57</v>
       </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" t="s">
-        <v>64</v>
-      </c>
       <c r="L23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M23" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O23" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1957,46 +1984,46 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E24">
         <v>666</v>
       </c>
       <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" t="s">
         <v>57</v>
       </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" t="s">
-        <v>64</v>
-      </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M24" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O24" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2005,46 +2032,46 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E25">
         <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
         <v>18</v>
       </c>
-      <c r="H25" t="s">
-        <v>19</v>
-      </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M25" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="N25" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O25" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2053,46 +2080,46 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E26">
         <v>77</v>
       </c>
       <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" t="s">
         <v>57</v>
       </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" t="s">
-        <v>64</v>
-      </c>
       <c r="L26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M26" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="N26" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O26" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2101,46 +2128,46 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" t="s">
-        <v>121</v>
       </c>
       <c r="E27">
         <v>77</v>
       </c>
       <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" t="s">
         <v>57</v>
       </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" t="s">
-        <v>64</v>
-      </c>
       <c r="L27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M27" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="N27" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O27" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2149,46 +2176,46 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E28">
         <v>77</v>
       </c>
       <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" t="s">
         <v>57</v>
       </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" t="s">
-        <v>62</v>
-      </c>
-      <c r="J28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" t="s">
-        <v>64</v>
-      </c>
       <c r="L28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M28" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="N28" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O28" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2197,46 +2224,46 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E29">
         <v>77</v>
       </c>
       <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" t="s">
         <v>57</v>
       </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" t="s">
-        <v>62</v>
-      </c>
-      <c r="J29" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" t="s">
-        <v>64</v>
-      </c>
       <c r="L29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M29" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O29" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2245,43 +2272,43 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E30">
         <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K30" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M30" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="N30" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2289,43 +2316,43 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E31">
         <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K31" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L31" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M31" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="N31" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2333,40 +2360,40 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="J32" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K32" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L32" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M32" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2374,43 +2401,43 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" t="s">
         <v>21</v>
       </c>
-      <c r="K33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" t="s">
-        <v>55</v>
-      </c>
-      <c r="M33" t="s">
-        <v>22</v>
-      </c>
       <c r="N33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2418,7 +2445,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N1 B5 A2 M2:N2 C2:K2 B3:E3 G3 I3:K3 B8 J8:K8 B7 B6 J6:K6 B4:K4 H5:K5 E8:G8 D5:F5 D7:K7 D6:H6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N1 B5 A2 M2:N2 D2:K2 B3 G3 I3:K3 B8 J8:K8 B7 B6 J6:K6 B4 H5:K5 E8:G8 D5:F5 D7:K7 D6:H6 D3:E3 D4:K4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/data/sample_org_data.xlsx
+++ b/public/data/sample_org_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaehyun/workspace/gaainkim0110.github.io/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A8F9EB-2216-5C49-AC4E-2AF020AD49E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A092A970-9B47-8142-A682-1AAB7035B6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sample Org Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sample Org Data'!$A$1:$Q$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sample Org Data'!$A$1:$Q$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="131">
   <si>
     <t>No</t>
   </si>
@@ -432,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KR008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KR009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KR011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KR012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,6 +509,10 @@
   </si>
   <si>
     <t>KK030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NR011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,10 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -962,7 +959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1003,7 +1000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" hidden="1">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -1051,7 +1048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" hidden="1">
       <c r="A4">
         <f t="shared" ref="A4:A29" si="0">+A3+1</f>
         <v>3</v>
@@ -1147,7 +1144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" hidden="1">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1195,7 +1192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" hidden="1">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1243,7 +1240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" hidden="1">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1300,7 +1297,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -1339,7 +1336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" hidden="1">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1348,7 +1345,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
@@ -1372,7 +1369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" hidden="1">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1381,7 +1378,7 @@
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
@@ -1420,7 +1417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" hidden="1">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1429,7 +1426,7 @@
         <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
@@ -1468,7 +1465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" hidden="1">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1477,7 +1474,7 @@
         <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -1510,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" hidden="1">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1519,7 +1516,7 @@
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
@@ -1555,7 +1552,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" hidden="1">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1564,7 +1561,7 @@
         <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>89</v>
@@ -1603,7 +1600,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" hidden="1">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1612,7 +1609,7 @@
         <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>89</v>
@@ -1651,7 +1648,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" hidden="1">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1660,7 +1657,7 @@
         <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
         <v>89</v>
@@ -1699,7 +1696,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20" customHeight="1">
+    <row r="18" spans="1:15" ht="20" hidden="1" customHeight="1">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1708,7 +1705,7 @@
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
         <v>89</v>
@@ -1747,7 +1744,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" hidden="1">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1756,7 +1753,7 @@
         <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
         <v>91</v>
@@ -1789,7 +1786,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" hidden="1">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1798,7 +1795,7 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
         <v>92</v>
@@ -1834,7 +1831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" hidden="1">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1843,7 +1840,7 @@
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
         <v>93</v>
@@ -1882,7 +1879,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" hidden="1">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1891,7 +1888,7 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
         <v>93</v>
@@ -1930,7 +1927,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" hidden="1">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1939,7 +1936,7 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>93</v>
@@ -1978,7 +1975,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" hidden="1">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1987,7 +1984,7 @@
         <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2026,7 +2023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" hidden="1">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2035,7 +2032,7 @@
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
         <v>94</v>
@@ -2074,7 +2071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" hidden="1">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2083,7 +2080,7 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
         <v>94</v>
@@ -2122,7 +2119,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" hidden="1">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2131,7 +2128,7 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
         <v>94</v>
@@ -2170,7 +2167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" hidden="1">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2179,7 +2176,7 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
         <v>94</v>
@@ -2218,7 +2215,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" hidden="1">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2227,7 +2224,7 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
         <v>94</v>
@@ -2266,7 +2263,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" hidden="1">
       <c r="A30">
         <f>+A29+1</f>
         <v>29</v>
@@ -2275,7 +2272,7 @@
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>92</v>
@@ -2311,7 +2308,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" hidden="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2319,7 +2316,7 @@
         <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
         <v>98</v>
@@ -2355,7 +2352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" hidden="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2363,7 +2360,7 @@
         <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>101</v>
@@ -2396,7 +2393,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" hidden="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2441,7 +2438,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q33" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="박영희"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="NAVER"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
